--- a/biology/Médecine/Françoise_Soussaline/Françoise_Soussaline.xlsx
+++ b/biology/Médecine/Françoise_Soussaline/Françoise_Soussaline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Soussaline</t>
+          <t>Françoise_Soussaline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Françoise Soussaline (née Yerouchalmi) née le 3 septembre 1945 est une biophysicienne française spécialiste de l'imagerie cellulaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Soussaline</t>
+          <t>Françoise_Soussaline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Françoise Soussaline effectue son doctorat en physique dans le domaine de la spectroscopie moléculaire à l'université Pierre-et-Marie-Curie entre 1970 et 1973. Elle effectue ses premières années de sa carrière comme chargée de recherche à l'INSERM, où elle participe au développement du premier scanner digital en médecine nucléaire. Elle effectue ses stages postdoctoraux dans des laboratoires et centres anti-cancer américains. Elle entre ensuite au service hospitalier Frédéric-Joliot du Commissariat à l'Énergie atomique et aux Énergies alternatives où elle développe la tomographie par émission de positons  dans le cadre d'une seconde thèse en biophysique qu'elle soutient en 1984 à l'université Paris-Sud sous la direction de Georges Charpak, prix nobel de physique en 1992. Elle est ensuite maîtresse de conférences en physique et biophysique médicales à l'université Pierre-et-Marie-Curie et à l'Université Paris-Sud[1]. 
-En 1985, elle crée l'entreprise IMSTAR, qui conçoit, développe et commercialise des systèmes automatisés d'imagerie dédiés à diverses applications de la recherche en sciences de la vie et aux tests de diagnostic des maladies génétiques et des cancers[2].
-Entre 2007 et 2009 elle est vice-présidente PME du pôle de compétitivité Medicen. Elle est également membre du collège PME au conseil de surveillance du centre francilien de l’innovation[3].
-Militante pour la place des femmes en sciences, elle instaure la parité dans son entreprise. Elle fait partie de l'association Femmes &amp; Sciences depuis sa création et participe à des rencontres avec des lycéennes pour promouvoir la place des femmes dans les filières scientifiques[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise Soussaline effectue son doctorat en physique dans le domaine de la spectroscopie moléculaire à l'université Pierre-et-Marie-Curie entre 1970 et 1973. Elle effectue ses premières années de sa carrière comme chargée de recherche à l'INSERM, où elle participe au développement du premier scanner digital en médecine nucléaire. Elle effectue ses stages postdoctoraux dans des laboratoires et centres anti-cancer américains. Elle entre ensuite au service hospitalier Frédéric-Joliot du Commissariat à l'Énergie atomique et aux Énergies alternatives où elle développe la tomographie par émission de positons  dans le cadre d'une seconde thèse en biophysique qu'elle soutient en 1984 à l'université Paris-Sud sous la direction de Georges Charpak, prix nobel de physique en 1992. Elle est ensuite maîtresse de conférences en physique et biophysique médicales à l'université Pierre-et-Marie-Curie et à l'Université Paris-Sud. 
+En 1985, elle crée l'entreprise IMSTAR, qui conçoit, développe et commercialise des systèmes automatisés d'imagerie dédiés à diverses applications de la recherche en sciences de la vie et aux tests de diagnostic des maladies génétiques et des cancers.
+Entre 2007 et 2009 elle est vice-présidente PME du pôle de compétitivité Medicen. Elle est également membre du collège PME au conseil de surveillance du centre francilien de l’innovation.
+Militante pour la place des femmes en sciences, elle instaure la parité dans son entreprise. Elle fait partie de l'association Femmes &amp; Sciences depuis sa création et participe à des rencontres avec des lycéennes pour promouvoir la place des femmes dans les filières scientifiques. 
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Soussaline</t>
+          <t>Françoise_Soussaline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1997 : chevalière de l'ordre national de la Légion d'honneur[5]
-2001 : officière de l'ordre national de la Légion d'honneur[6]
-2010 : prix Irène-Joliot-Curie dans la catégorie parcours femme entreprise [7]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1997 : chevalière de l'ordre national de la Légion d'honneur
+2001 : officière de l'ordre national de la Légion d'honneur
+2010 : prix Irène-Joliot-Curie dans la catégorie parcours femme entreprise </t>
         </is>
       </c>
     </row>
